--- a/medicine/Mort/Behesht-e_Zahra/Behesht-e_Zahra.xlsx
+++ b/medicine/Mort/Behesht-e_Zahra/Behesht-e_Zahra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Behesht-e Zahra (en persan : بهشت زهرا, Le paradis de Zahra) est le plus grand cimetière d'Iran, situé 
 à Ray, dans la banlieue sud de Téhéran.
@@ -512,7 +524,9 @@
           <t>Nom</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière s'appelle « le paradis de Zahra » en l'honneur de Fatima Zahra, fille du prophète Mahomet.
 </t>
@@ -543,11 +557,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le développement de la capitale de l'Iran à partir des années 1950 amène à la fermeture des cimetières intra-muros et la création de nouvelles nécropoles en dehors de l'enceinte de la ville. Behesht-e Zahra est ainsi aménagé à la fin des années 1960 et ouvert en 1970[1]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le développement de la capitale de l'Iran à partir des années 1950 amène à la fermeture des cimetières intra-muros et la création de nouvelles nécropoles en dehors de l'enceinte de la ville. Behesht-e Zahra est ainsi aménagé à la fin des années 1960 et ouvert en 1970. 
 Ce cimetière est le premier lieu visité par Khomeini après son retour en Iran en février 1979. 
-Entre 1980 et 1988, de nombreux morts de la guerre Iran-Irak y sont enterrés[2]. 
+Entre 1980 et 1988, de nombreux morts de la guerre Iran-Irak y sont enterrés. 
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Morgue</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La morgue du cimetière entend centraliser tous les morts de la capitale à des fins d'enregistrement et peut faciliter le transfert du corps du défunt en province si les familles le souhaitent[3]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La morgue du cimetière entend centraliser tous les morts de la capitale à des fins d'enregistrement et peut faciliter le transfert du corps du défunt en province si les familles le souhaitent. 
 </t>
         </is>
       </c>
@@ -607,9 +625,11 @@
           <t>Secteurs</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière est réparti ès divisions, dont certaines sont numérisées (e. g. divisions 15, 17, 22, 23, 33 et 39) et d'autres ont un titre (e. g. division des savant du pays, division des artistes)[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière est réparti ès divisions, dont certaines sont numérisées (e. g. divisions 15, 17, 22, 23, 33 et 39) et d'autres ont un titre (e. g. division des savant du pays, division des artistes).
 </t>
         </is>
       </c>
@@ -638,7 +658,9 @@
           <t>Transports</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière est relié à la ville par la ligne 1 du métro et desservi par la station Haram-e-Motahar.
 </t>
@@ -669,19 +691,90 @@
           <t>Personnalités inhumées</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Le mausolée de l'ayatollah Khomeini est situé à l'extérieur du cimetière.  
-Hommes politiques
-Mohammad Saed (1883-1973), Premier ministre
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mausolée de l'ayatollah Khomeini est situé à l'extérieur du cimetière.  
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Behesht-e_Zahra</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Behesht-e_Zahra</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Hommes politiques</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Mohammad Saed (1883-1973), Premier ministre
 Amir Abbas Hoveida (1919-1979), Premier ministre
 Mahmoud Taleghani (1911-1979)
 Mostafa Chamran (1932-1981)
 Mohammad Beheshti (1928-1981)
 Mohammad Ali Radjaï (1933-1981)
-Hamid Taqwi (1959-2014), lieutenant-général de l'IGRC
-Militaires
-Nematollah Nassiri (1910–1979), général de l'armée impériale iranienne et directeur de la SAVAK (1965-1978)
+Hamid Taqwi (1959-2014), lieutenant-général de l'IGRC</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Behesht-e_Zahra</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Behesht-e_Zahra</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Militaires</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Nematollah Nassiri (1910–1979), général de l'armée impériale iranienne et directeur de la SAVAK (1965-1978)
 Jafarqoli Sadri (fa) (1911-1979), chef de la police nationale
 Mehdi Rahimi (en) (1921-1979), lieutenant-général de l'armée impériale iranienne
 Seyyed Reza Nadji (fa), général de l'armée impériale iranienne
@@ -699,13 +792,81 @@
 Hossein Khalatbari (en) (1949–1985), pilote
 Abdolbaghi Darvish (en) (1948-1986), pilote
 Hussein Fardust (1917-1987), général de l'aviation de l'armée impériale iranienne et chef adjoint de SAVA
-Bahram Hooshyar (en) (1938-1991), général de brigade de la force aérienne de la République islamique d'Iran
-Artistes et écrivains
-Fereydoun Moshiri
+Bahram Hooshyar (en) (1938-1991), général de brigade de la force aérienne de la République islamique d'Iran</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Behesht-e_Zahra</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Behesht-e_Zahra</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Artistes et écrivains</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Fereydoun Moshiri
 Ahmad NikTalab
-Homa Rousta
-Autres
-Neda Agha-Soltan
+Homa Rousta</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Behesht-e_Zahra</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Behesht-e_Zahra</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Neda Agha-Soltan
 Esmat ol-Molouk
 Majid Kavousifar
 Djalal Abdoh</t>
